--- a/매니저봇 기능 정리 및 기획안.xlsx
+++ b/매니저봇 기능 정리 및 기획안.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansi\Desktop\코딩_프로젝트\Bot_Project\CEF_Test_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3953AD6-1B38-427C-B1DB-5AFED311E427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF28ADD9-F2D8-4E62-A7A9-1094A68BECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="17850" windowHeight="20445" activeTab="1" xr2:uid="{DA1B6D80-C27A-43DC-86F9-C828143F185F}"/>
+    <workbookView xWindow="14250" yWindow="1995" windowWidth="17430" windowHeight="14505" xr2:uid="{34493D71-4028-40FB-A2CC-CC57B5164F45}"/>
   </bookViews>
   <sheets>
     <sheet name="간단요약" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="218">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID_Num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cur_Wallet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,18 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Win_Head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win_Coach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win_Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>토츠(FW)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,28 +179,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tots_FW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tots_MF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tots_DF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tots_GK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명단
-(List)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -356,13 +319,6 @@
   <si>
     <t>탈퇴
 (Out)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List
- - Joint_Date, ID_Num*, Nickname, Jupo, Bupo, Team, Contract, Price, Cur_Wallet, Pre_Wallet
-Career
- - ID_Num*, Win_Head, Win_Coach, Win_Player, Tots_FW, Tots_MF, Tots_DF, Tots_GK, Pots</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,11 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>List
- - Nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포지션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,13 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>List
- - Nickname, Jupo, Bupo
-Attend
- - Nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정보열람</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,15 +429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>List
- - Nickname, Jupo, Bupo, Team, Contract, Price, Cur_Wallet, Pre_Wallet
-Career
- - Win_Head, Win_Coach, Win_Player, Tots_FW, Tots_MF, Tots_DF, Tots_GK, Pots
-Judge
- - Red, Yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Judge
  - ID_Num, Red, Yellow</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,115 +486,512 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>List
+    <t>1. 각 팀의 팀채팅에 종료공지를 알린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%시즌초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임대생 권한 회수 및 명단 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 각 팀의 임대생으로부터 역할을 회수한다.
+2. 명단 테이블 내 소속팀, 계약 상태를 무소속으로 변경한다.
+3. 출석 테이블 내 임대생들을 제거한다.
+4. 모든 임대생을 명단으로 작성하여 감독용 채널에 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%리그초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%중도불참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불참일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 팀 권한 회수 및 팀 채널을 초기화한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 리그 팀 선수, 코치 권한을 회수한다.
+2. 각 팀의 팀채팅, 전술노트, 선발명단, 출석조사, 감독토크 채널을 초기화한다.
+3. 명단 테이블 내 소속팀, 계약상태, 불참일자, 이적료를 초기화한다.
+4. 출석 테이블 내 모든 정보를 삭제한다.
+5. 팀 자산 테이블 내 모든 정보를 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중도참가자 명단을 추가 및 정리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%중도참가 &lt;포지션1&gt; &lt;포지션2&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중도참가
+(Participation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포지션1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포지션2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 명단 테이블 내 소속팀, 계약 상태를 무소속으로 변경하며, 불참일자를 기록한다.
+2. 출석 테이블 내 해당 유저의 정보를 제거한다.
+3. 해당 선수의 이적료만큼 팀 자산에 반환한다.
+4. 징계 테이블 내 옐로카드 1회 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발롱도르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%커리어 &lt;선수or코치or감독&gt; &lt;@멘션&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%토츠 &lt;포지션&gt; &lt;@멘션&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커리어 테이블에 해당 선수의 우승 커리어 기록을 추가 및 업데이트 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커리어 테이블에 해당 선수의 토츠 기록을 추가 및 업데이트 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 기존 해당 선수의 커리어 테이블 내 커리어 정보를 읽는다. 
+2. 해당되는 항목에 1을 더한 후 업데이트한다.
+3. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기존 해당 선수의 커리어 테이블 내 토츠 정보를 읽는다. 
+2. 해당되는 항목에 1을 더한 후 업데이트한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Career
+ - ID_Num, Pots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%포츠 &lt;@멘션&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커리어 테이블에 해당 선수의 포츠 기록을 추가 및 업데이트 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기존 해당 선수의 커리어 테이블 내 포츠 정보를 읽는다. 
+2. 해당되는 항목에 1을 더한 후 업데이트한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이적요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미접속방출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>everyone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선수의 이적을 진행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%이적 &lt;종류&gt; &lt;@멘션&gt; &lt;포지션&gt; &lt;이적료&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. &lt;종류&gt; 일반, 바이아웃을 구분한다.
+2. 명단 테이블 내 주포지션, 소속팀, 계약 상태, 이적료, 현 자산, 누적 자산를 업데이트하며, 불참일자를 초기화한다.
+3. 출석 테이블 내 소속팀, 포지션을 업데이트한다.
+4. 중도참가 테이블 내 정보가 있을 시, 삭제한다.
+5. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%방출 &lt;@멘션&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 선수를 방출한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%이적요청 &lt;포지션1&gt; &lt;포지션2&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이적요청 명단을 관리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%미접속방출 &lt;@멘션&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>징계일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>징계부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>징계현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%징계현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%징계부여 &lt;종류&gt; &lt;@멘션&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 멘션 ID로 징계 테이블 내 레드카드, 옐로카드 조회
+2. 종류가 레드카드일 경우, 징계 테이블 내 레드카드 1회 추가한다.
+3. 종류가 징계 테이블 내 옐로카드 1회 추가한다.
+   옐로카드 추가 후 2회일 경우, 레드카드 1로 전환한다.
+4. 
+5. 레드카드, 옐로카드 정보를 징계센터 채널에 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>징계를 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>징계 현황을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 징계 테이블 내 정보들을 조회한다.
+2. 해당 정보를 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막출석일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last_Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 해당 선수의 이적료를 0으로 초기화한다.
+2. 해당 선수의 역할을 제거한다.
+3. 명단 테이블 내 소속팀, 계약 상태를 '무소속'으로 초기화한다.
+4. 출석 테이블 내 해당 선수의 정보를 삭제힌다.
+5. 징계 테이블 내 레드카드를 1회 추가하며, 징계일자와 복귀일자를 업데이트한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중도불참자 정보를 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미접속 팀원을 방출한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 팀 자산 테이블 내 소속 팀의 이적자금을 환급한다.
+2. 해당 선수의 이적료를 0으로 초기화한다.
+3. 해당 선수의 역할을 제거한다.
+4. 명단 테이블 내 소속팀, 계약 상태를 '무소속'으로 초기화한다.
+5. 출석 테이블 내 해당 선수의 정보를 삭제힌다.
+6. 징계 테이블 내 옐로카드를 1회 추가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jud_Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복구일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rec_Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 팀 역할이 없는지 체크한다.
+2. 명단 테이블 내 불참일자를 조회하여 가능여부(2주)를 체크한다.
+3. 목록으로 정리하여 닉네임, 포지션 1, 2를 정리한다.
+4. 중도참가 테이블 내 ID, 포지션1, 포지션2, 소속팀(무소속)을 업데이트한다.
+5. 명령어를 사용할 때마다 감독용 채널에 1의 누적된 목록을 출력한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participation
+ - ID_Num, Pos1, Pos2, Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 팀 역할이 있는지 체크한다.
+2. 소속팀이 있을 경우 중도 참가 테이블에 ID, 포지션1, 포지션2, 소속팀를 추가한다.
+4. 소속팀 감독 토크, 주장용, 이적시장 채널에 출력한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%출석취소 &lt;경기&gt;</t>
+  </si>
+  <si>
+    <t>%출석초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%출석공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석 체크한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석 취소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 팀의 출석 현황을 초기화한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 팀의 출석 현황을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석 공지한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%출석 &lt;경기&gt;
+경기 : 1, 2, 3, 4, 모두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%출석결과 &lt;팀명&gt;
+팀명 : A, a, TEAM_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%팀정보 &lt;팀명&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀의 자산, 팀원 등을 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 입력한 팀명에 맞게 출석 테이블 내에서 TEAM, Nickname, Pos, Match1, Match2, Match3, Match4를 조회한다.
+2. 1의 내용을 정리하여 디스코드 내에 Embed로 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 출석명단 테이블 내 해당 유저의 소속팀을 조회한다.
+2. 입력한 값에 따라 출석 테이블 내 각 경기별로 업데이트한다.
+(기본값 : None, 체크할경우 : Check)
+3. 출석 테이블 내 누적횟수를 추가한다.
+(낱개 입력 시 +1, 모두 입력 시 +4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 출석명단 테이블 내 해당 유저의 소속팀을 조회한다.
+2. 입력한 값에 따라 출석 테이블 내 각 경기별로 업데이트한다.
+(기본값 : None, 취소할경우 : Cancel)
+3. 출석 테이블 내 누적횟수를 감소한다.
+(낱개 입력 시 -1, 모두 입력 시 -4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 출석 테이블 내 Match1, Match2, Match3, Match4 중 하나가 Check 일 경우 Last_Date를 업데이트한다.
+2. 출석 테이블 내 모든 선수의 Match1, Match2, Match3, Match4를 초기화한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 모든 팀의 출석체크 채널에 멘션을 통해 공지한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attend
+ - Team, Match1, Match2, Match3, Match4,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attend
+ - Match1, Match2, Match3, Match4, Last_Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명단
+(User_Info)</t>
+  </si>
+  <si>
+    <t>User_Info
+ - Nickname, Jupo, Bupo
+Attend
+ - Nickname</t>
+  </si>
+  <si>
+    <t>User_Info
+ - Nickname</t>
+  </si>
+  <si>
+    <t>User_Info
  - Team, Cantract, Price, Cur_Wallet, Pre_Wallet
 Attend
  - Team, Nickname, Pos, Match1 ~ 4, Count(=0)
 Fund
  - Team, Fund</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 각 팀의 팀채팅에 종료공지를 알린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%시즌초기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임대생 권한 회수 및 명단 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 각 팀의 임대생으로부터 역할을 회수한다.
-2. 명단 테이블 내 소속팀, 계약 상태를 무소속으로 변경한다.
-3. 출석 테이블 내 임대생들을 제거한다.
-4. 모든 임대생을 명단으로 작성하여 감독용 채널에 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%리그초기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%중도불참</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불참일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exit_Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 팀 권한 회수 및 팀 채널을 초기화한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 리그 팀 선수, 코치 권한을 회수한다.
-2. 각 팀의 팀채팅, 전술노트, 선발명단, 출석조사, 감독토크 채널을 초기화한다.
-3. 명단 테이블 내 소속팀, 계약상태, 불참일자, 이적료를 초기화한다.
-4. 출석 테이블 내 모든 정보를 삭제한다.
-5. 팀 자산 테이블 내 모든 정보를 삭제한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List
+  </si>
+  <si>
+    <t>User_Info
  - Team, Cantract
 Attend
  - Team, Nickname, Pos, Match1 ~ 4, Count(=0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List
+  </si>
+  <si>
+    <t>User_Info
  - Team, Cantract
 Attend
  - Team, Nickname, Pos, Match1 ~ 4, Count(=0)
 Fund
  - Team, Fund</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중도참가자 명단을 추가 및 정리한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%중도참가 &lt;포지션1&gt; &lt;포지션2&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중도참가
-(Participation)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포지션1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포지션2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pos1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pos2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 명단 테이블 내 소속팀, 계약 상태를 무소속으로 변경하며, 불참일자를 기록한다.
-2. 출석 테이블 내 해당 유저의 정보를 제거한다.
-3. 해당 선수의 이적료만큼 팀 자산에 반환한다.
-4. 징계 테이블 내 옐로카드 1회 추가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List
+  </si>
+  <si>
+    <t>User_Info
+ - ID_Num*, Team, Contract, 
+Attend
+ - Team, Nickname, Pos, Match1 ~ 4, Count(=0)
+Fund
+ - Team, Fund
+Judge
+ - ID_Num, Red, Yellow</t>
+  </si>
+  <si>
+    <t>User_Info
+ - Team
+Participation
+ - ID_Num, Pos1, Pos2, Team</t>
+  </si>
+  <si>
+    <t>User_Info
+ - Team, Contract, Exit_Date, Price, Cur_Wallet, Pre_Wallet
+Attend
+ - Team, Nickname, Pos, Match1 ~ 4, Count(=0)
+Judge
+ - ID_Num, Red, Yellow, Jud_Date, Rec_Date</t>
+  </si>
+  <si>
+    <t>User_Info
+ - Team, Contract, Exit_Date, Price, Cur_Wallet, Pre_Wallet
+Attend
+ - Team, Nickname, Pos, Match1 ~ 4, Count(=0)
+Judge
+ - ID_Num, Red, Yellow, Jud_Date, Rec_Date
+Fund
+ - Team, Fund</t>
+  </si>
+  <si>
+    <t>User_Info
  - ID_Num*, Team, Contract, Exit_Date
 Attend
  - Team, Nickname, Pos, Match1 ~ 4, Count(=0)
@@ -667,414 +999,58 @@
  - Team, Fund
 Judge
  - ID_Num, Red, Yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발롱도르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%커리어 &lt;선수or코치or감독&gt; &lt;@멘션&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%토츠 &lt;포지션&gt; &lt;@멘션&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커리어 테이블에 해당 선수의 우승 커리어 기록을 추가 및 업데이트 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커리어 테이블에 해당 선수의 토츠 기록을 추가 및 업데이트 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B44:B50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 기존 해당 선수의 커리어 테이블 내 커리어 정보를 읽는다. 
-2. 해당되는 항목에 1을 더한 후 업데이트한다.
-3. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 기존 해당 선수의 커리어 테이블 내 토츠 정보를 읽는다. 
-2. 해당되는 항목에 1을 더한 후 업데이트한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Career
- - ID_Num, Win_Head, Win_Coach, Win_Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Career
- - ID_Num, Tots_FW, Tots_MF, Tots_DF, Tots_GK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Career
- - ID_Num, Pots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%포츠 &lt;@멘션&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커리어 테이블에 해당 선수의 포츠 기록을 추가 및 업데이트 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 기존 해당 선수의 커리어 테이블 내 포츠 정보를 읽는다. 
-2. 해당되는 항목에 1을 더한 후 업데이트한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이적요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미접속방출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>everyone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스태프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선수의 이적을 진행한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%이적 &lt;종류&gt; &lt;@멘션&gt; &lt;포지션&gt; &lt;이적료&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. &lt;종류&gt; 일반, 바이아웃을 구분한다.
-2. 명단 테이블 내 주포지션, 소속팀, 계약 상태, 이적료, 현 자산, 누적 자산를 업데이트하며, 불참일자를 초기화한다.
-3. 출석 테이블 내 소속팀, 포지션을 업데이트한다.
-4. 중도참가 테이블 내 정보가 있을 시, 삭제한다.
-5. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%방출 &lt;@멘션&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 선수를 방출한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%이적요청 &lt;포지션1&gt; &lt;포지션2&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이적요청 명단을 관리한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%미접속방출 &lt;@멘션&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>징계일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>징계부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>징계현황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%징계현황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%징계부여 &lt;종류&gt; &lt;@멘션&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 멘션 ID로 징계 테이블 내 레드카드, 옐로카드 조회
-2. 종류가 레드카드일 경우, 징계 테이블 내 레드카드 1회 추가한다.
-3. 종류가 징계 테이블 내 옐로카드 1회 추가한다.
-   옐로카드 추가 후 2회일 경우, 레드카드 1로 전환한다.
-4. 
-5. 레드카드, 옐로카드 정보를 징계센터 채널에 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>징계를 부여한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>징계 현황을 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 징계 테이블 내 정보들을 조회한다.
-2. 해당 정보를 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막출석일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last_Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 해당 선수의 이적료를 0으로 초기화한다.
-2. 해당 선수의 역할을 제거한다.
-3. 명단 테이블 내 소속팀, 계약 상태를 '무소속'으로 초기화한다.
-4. 출석 테이블 내 해당 선수의 정보를 삭제힌다.
-5. 징계 테이블 내 레드카드를 1회 추가하며, 징계일자와 복귀일자를 업데이트한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List
- - ID_Num*, Team, Contract, 
-Attend
- - Team, Nickname, Pos, Match1 ~ 4, Count(=0)
-Fund
- - Team, Fund
-Judge
- - ID_Num, Red, Yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중도불참자 정보를 삭제한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미접속 팀원을 방출한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 팀 자산 테이블 내 소속 팀의 이적자금을 환급한다.
-2. 해당 선수의 이적료를 0으로 초기화한다.
-3. 해당 선수의 역할을 제거한다.
-4. 명단 테이블 내 소속팀, 계약 상태를 '무소속'으로 초기화한다.
-5. 출석 테이블 내 해당 선수의 정보를 삭제힌다.
-6. 징계 테이블 내 옐로카드를 1회 추가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jud_Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복구일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rec_Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List
- - Team, Contract, Exit_Date, Price, Cur_Wallet, Pre_Wallet
-Attend
- - Team, Nickname, Pos, Match1 ~ 4, Count(=0)
-Judge
- - ID_Num, Red, Yellow, Jud_Date, Rec_Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List
- - Team, Contract, Exit_Date, Price, Cur_Wallet, Pre_Wallet
-Attend
- - Team, Nickname, Pos, Match1 ~ 4, Count(=0)
-Judge
- - ID_Num, Red, Yellow, Jud_Date, Rec_Date
-Fund
- - Team, Fund</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 팀 역할이 없는지 체크한다.
-2. 명단 테이블 내 불참일자를 조회하여 가능여부(2주)를 체크한다.
-3. 목록으로 정리하여 닉네임, 포지션 1, 2를 정리한다.
-4. 중도참가 테이블 내 ID, 포지션1, 포지션2, 소속팀(무소속)을 업데이트한다.
-5. 명령어를 사용할 때마다 감독용 채널에 1의 누적된 목록을 출력한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Participation
- - ID_Num, Pos1, Pos2, Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List
- - Team
-Participation
- - ID_Num, Pos1, Pos2, Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 팀 역할이 있는지 체크한다.
-2. 소속팀이 있을 경우 중도 참가 테이블에 ID, 포지션1, 포지션2, 소속팀를 추가한다.
-4. 소속팀 감독 토크, 주장용, 이적시장 채널에 출력한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석초기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석공지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%출석취소 &lt;경기&gt;</t>
-  </si>
-  <si>
-    <t>%출석초기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%출석공지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석 체크한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석 취소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 팀의 출석 현황을 초기화한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력한 팀의 출석 현황을 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석 공지한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%출석 &lt;경기&gt;
-경기 : 1, 2, 3, 4, 모두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%출석결과 &lt;팀명&gt;
-팀명 : A, a, TEAM_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%팀정보 &lt;팀명&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀의 자산, 팀원 등을 조회한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 입력한 팀명에 맞게 출석 테이블 내에서 TEAM, Nickname, Pos, Match1, Match2, Match3, Match4를 조회한다.
-2. 1의 내용을 정리하여 디스코드 내에 Embed로 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 출석명단 테이블 내 해당 유저의 소속팀을 조회한다.
-2. 입력한 값에 따라 출석 테이블 내 각 경기별로 업데이트한다.
-(기본값 : None, 체크할경우 : Check)
-3. 출석 테이블 내 누적횟수를 추가한다.
-(낱개 입력 시 +1, 모두 입력 시 +4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 출석명단 테이블 내 해당 유저의 소속팀을 조회한다.
-2. 입력한 값에 따라 출석 테이블 내 각 경기별로 업데이트한다.
-(기본값 : None, 취소할경우 : Cancel)
-3. 출석 테이블 내 누적횟수를 감소한다.
-(낱개 입력 시 -1, 모두 입력 시 -4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 출석 테이블 내 Match1, Match2, Match3, Match4 중 하나가 Check 일 경우 Last_Date를 업데이트한다.
-2. 출석 테이블 내 모든 선수의 Match1, Match2, Match3, Match4를 초기화한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 모든 팀의 출석체크 채널에 멘션을 통해 공지한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List
+  </si>
+  <si>
+    <t>User_Info
  - ID_Num, Team
 Attend
  - ID_Num, Match1, Match2, Match3, Match4, Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attend
- - Team, Match1, Match2, Match3, Match4,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attend
- - Match1, Match2, Match3, Match4, Last_Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coach</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>Career
+ - ID_Num, head, coach, player</t>
+  </si>
+  <si>
+    <t>fw</t>
+  </si>
+  <si>
+    <t>User_Info
+ - Joint_Date, ID_Num*, Nickname, Jupo, Bupo, Team, Contract, Price, Cur_Wallet, Pre_Wallet
+Career
+ - ID_Num*, head, coach, player, fw, Tots_MF, Tots_DF, Tots_GK, Pots</t>
+  </si>
+  <si>
+    <t>User_Info
+ - Nickname, Jupo, Bupo, Team, Contract, Price, Cur_Wallet, Pre_Wallet
+Career
+ - head, coach, player, fw, Tots_MF, Tots_DF, Tots_GK, Pots
+Judge
+ - Red, Yellow</t>
+  </si>
+  <si>
+    <t>Career
+ - ID_Num, fw, Tots_MF, Tots_DF, Tots_GK</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>gk</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,6 +1132,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1477,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02E0162-0476-4AD5-BC70-EB649A34E742}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1489,28 +1468,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1533,10 +1512,22 @@
       <c r="H2" t="s">
         <v>3</v>
       </c>
+      <c r="I2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>43</v>
+      <c r="A3" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1547,11 +1538,11 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>54</v>
+      <c r="E3" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -1559,31 +1550,51 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
+      <c r="I3" s="12"/>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="E4" s="12"/>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
+      <c r="I4" s="12"/>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -1593,18 +1604,18 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="11"/>
       <c r="H5">
         <f>COUNTA(H3:H4)</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1614,21 +1625,12 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
+      <c r="E6" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -1638,19 +1640,19 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" t="s">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -1660,63 +1662,54 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="12"/>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -1726,163 +1719,165 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="12"/>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="12"/>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="12"/>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="E14" s="12"/>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="11"/>
       <c r="D15">
         <f>COUNTA(D3:D13)</f>
         <v>11</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="12"/>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>44</v>
+      <c r="A16" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="11"/>
       <c r="H16">
         <f>COUNTA(H6:H15)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I16" s="4"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>65</v>
+      <c r="E17" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" s="4"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="12"/>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -1891,22 +1886,22 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -1915,22 +1910,22 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="12"/>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -1939,22 +1934,22 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="12"/>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -1963,21 +1958,21 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="11"/>
       <c r="H22">
         <f>COUNTA(H17:H21)</f>
         <v>5</v>
@@ -1989,120 +1984,94 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>77</v>
+      <c r="E23" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="12"/>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="11"/>
       <c r="D25">
         <f>COUNTA(D16:D24)</f>
         <v>9</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="12"/>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E27" s="12"/>
+      <c r="F27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25">
-        <f>COUNTA(H23:H24)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E27" s="11"/>
-      <c r="F27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E28" s="11"/>
-      <c r="F28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E29" s="11"/>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" t="s">
-        <v>14</v>
+      <c r="G27" s="11"/>
+      <c r="H27">
+        <f>COUNTA(H23:H26)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2113,14 +2082,14 @@
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="E6:E16"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="I2:I4"/>
     <mergeCell ref="A3:A15"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A16:A25"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2132,16 +2101,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE51B060-3337-4C77-AC43-C0D3848DC4CF}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="40" style="7" customWidth="1"/>
     <col min="6" max="6" width="43.875" style="7" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -2149,122 +2118,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="132" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2277,9 +2246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D70ED04-6036-4B26-A078-AAD52322F7E4}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2294,62 +2261,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2370,9 +2337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A9F149-EDE6-4FDC-90D5-3A91E51042E2}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2387,114 +2352,114 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2505,11 +2470,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87499871-A837-4CED-87EA-BDF6B4F362B6}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2524,79 +2487,79 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2607,11 +2570,6 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" s="6"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
-        <v>141</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2624,9 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68E71C4-2D80-415D-BB8B-8808AD7DE2D0}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2641,142 +2597,142 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="132" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="132" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2789,9 +2745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31081841-D06B-4A48-9456-17E78022D486}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2806,119 +2760,119 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -2949,19 +2903,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
